--- a/biology/Zoologie/Charles_Joseph_Gravier/Charles_Joseph_Gravier.xlsx
+++ b/biology/Zoologie/Charles_Joseph_Gravier/Charles_Joseph_Gravier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Joseph Gravier est un zoologiste français, né le 4 mars 1865 à Orléans et mort le 15 novembre 1937 à Paris (14e), 21 rue Hallé.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d’un milieu modeste, il est reçu major à l’École normale d’Orléans. Il devient instituteur en 1883 avant de partir en 1885 à l’École normale supérieure de Saint-Cloud, section sciences. Il découvre et se passionne pour la zoologie grâce au cours d’Edmond Perrier (1844-1921).
-Gravier devient, en 1887, professeur d’histoire naturelle à l’école normale de Grenoble. Il obtient une licence de sciences physiques en 1889 et de sciences naturelles en 1891. Il obtient une bourse qui lui permet d’obtenir l’agrégation de sciences naturelles en 1893. Sous la direction d’E. Perrier, il soutient sa thèse en sciences en 1896[1] et entre au Muséum national d'histoire naturelle deux ans plus tard.
+Gravier devient, en 1887, professeur d’histoire naturelle à l’école normale de Grenoble. Il obtient une licence de sciences physiques en 1889 et de sciences naturelles en 1891. Il obtient une bourse qui lui permet d’obtenir l’agrégation de sciences naturelles en 1893. Sous la direction d’E. Perrier, il soutient sa thèse en sciences en 1896 et entre au Muséum national d'histoire naturelle deux ans plus tard.
 Gravier est d’abord assistant d’E. Perrier au Muséum puis, en 1903, assistant de son successeur Louis Joubin (1861-1935). En 1917, il obtient la nouvelle chaire des vers et des crustacés et devient membre, en 1922, de l’Académie des sciences française.
 Il a été fait chevalier de la Légion d'honneur le 1er octobre 1923 et commandeur le 6 août 1937.
 </t>
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1901 — Méthode de récolte, de fixation et de conservation des invertébrés (arthropodes exceptés) (Paris : Impr. nationale).
 1904 — Rapport sur une mission scientifique à la Côte française des Somalis (Paris : Impr. nationale).
@@ -598,7 +614,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Thèse intitulée Recherches sur les phyllodociens.
@@ -630,7 +648,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Jaussaud &amp; Édouard R. Brygoo (2004). Du Jardin au Muséum en 516 biographies. Muséum national d’histoire naturelle de Paris : 630 p.  (ISBN 2-85653-565-8)
 Notices d'autorité : VIAF ISNI BnF (données) IdRef GND Pays-Bas NUKAT WorldCat 
